--- a/final_shift_schedule.xlsx
+++ b/final_shift_schedule.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D249"/>
+  <dimension ref="A1:D219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Oscar Patel</t>
+          <t>Akshaya Daamudi</t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tina Campbell</t>
+          <t>Ankita Menon</t>
         </is>
       </c>
     </row>
@@ -512,7 +512,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Caleb Turner</t>
+          <t>Abhi Mora</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sam Lee</t>
+          <t>Sonia Joseph</t>
         </is>
       </c>
     </row>
@@ -552,7 +552,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Michael Hall</t>
+          <t>Danielle Mecteaux</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ian Robinson</t>
+          <t>Sofia Francis</t>
         </is>
       </c>
     </row>
@@ -592,7 +592,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hailey Scott</t>
+          <t>Manit Singh</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Noah Nguyen</t>
+          <t>Vaddula, Sai</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>George Parker</t>
+          <t>Akshainie Kamma</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Quinn Rodriguez</t>
+          <t>Sathvik Chintha</t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Gavin Young</t>
+          <t>Anisha Saravanan</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Victor Martinez</t>
+          <t>Rilyn Royer</t>
         </is>
       </c>
     </row>
@@ -708,11 +708,11 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Hannah Nelson</t>
+          <t>Ridhima Reddy</t>
         </is>
       </c>
     </row>
@@ -728,51 +728,51 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Kyle Mitchell</t>
+          <t>Seejal Atukula</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Michael Walker</t>
+          <t>Daksha swaminathan Ashwath Athrey</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Eli King</t>
+          <t>Rayna Badarpura</t>
         </is>
       </c>
     </row>
@@ -788,11 +788,11 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jasmine Campbell</t>
+          <t>Bezan Viccaji</t>
         </is>
       </c>
     </row>
@@ -808,11 +808,11 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Rachel Evans</t>
+          <t>Keall French</t>
         </is>
       </c>
     </row>
@@ -828,11 +828,11 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Yara Allen</t>
+          <t>Aanya Sahir</t>
         </is>
       </c>
     </row>
@@ -848,11 +848,11 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Nina Perez</t>
+          <t>Ananya Chakka</t>
         </is>
       </c>
     </row>
@@ -868,11 +868,11 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Noah Brown</t>
+          <t>Suhani Gagrani</t>
         </is>
       </c>
     </row>
@@ -888,51 +888,51 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Julia Roberts</t>
+          <t>Isabella Moreno Martinez</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Isaac Martinez</t>
+          <t>Amber Lin</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Eli Rodriguez</t>
+          <t>Bella Zhang</t>
         </is>
       </c>
     </row>
@@ -948,11 +948,11 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Chris Sanchez</t>
+          <t>Bhuvan Teja Mantrala</t>
         </is>
       </c>
     </row>
@@ -968,11 +968,11 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Faith Turner</t>
+          <t>Archana Kaimal</t>
         </is>
       </c>
     </row>
@@ -988,11 +988,11 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Paula Garcia</t>
+          <t>Mariyam Khazi</t>
         </is>
       </c>
     </row>
@@ -1008,91 +1008,91 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Tina Rodriguez</t>
+          <t>Shreya Rajavel</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Diana Garcia</t>
+          <t>Srinidhi Inam</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Michael Clark</t>
+          <t>Raza Inam</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Ethan Garcia</t>
+          <t>Varun Bhadurgatte Nagaraj</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Ian Collins</t>
+          <t>Hasit Baaru</t>
         </is>
       </c>
     </row>
@@ -1108,11 +1108,11 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Laura Hernandez</t>
+          <t>Nina Konkle</t>
         </is>
       </c>
     </row>
@@ -1128,11 +1128,11 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Kevin Scott</t>
+          <t>Rajath Shivakumar</t>
         </is>
       </c>
     </row>
@@ -1148,11 +1148,11 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Chris Lee</t>
+          <t>Nadine Khatum</t>
         </is>
       </c>
     </row>
@@ -1168,91 +1168,91 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Zane Parker</t>
+          <t>Arjun Lakkireddy</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Victor Hall</t>
+          <t>Anirudh Puvvada</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Caleb Lopez</t>
+          <t>Maitri Sharma</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Victor Phillips</t>
+          <t>Anisha Saravanan</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Julia Carter</t>
+          <t>Rilyn Royer</t>
         </is>
       </c>
     </row>
@@ -1268,11 +1268,11 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>George Robinson</t>
+          <t>Anishka Vasanthu</t>
         </is>
       </c>
     </row>
@@ -1288,131 +1288,131 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Yara Baker</t>
+          <t>Akshaya Daamudi</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Wendy Phillips</t>
+          <t>Hasini Murali</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Zane Wright</t>
+          <t>Samantha Zhang</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Xander Phillips</t>
+          <t>Mack Moore</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Gavin Hernandez</t>
+          <t>Ashwini Yeluru</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Wendy Collins</t>
+          <t>Karthik Jai</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Eli Robinson</t>
+          <t>Varun Murugan</t>
         </is>
       </c>
     </row>
@@ -1428,11 +1428,11 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Wendy Roberts</t>
+          <t>Abhi Mora</t>
         </is>
       </c>
     </row>
@@ -1448,418 +1448,418 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Fiona Scott</t>
+          <t>Sonia Joseph</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Jasmine Carter</t>
+          <t>Pranav Malaraju</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Bella Hernandez</t>
+          <t>Aryan Rapolu</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Laura Hall</t>
+          <t>Archana Kaimal</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Yara Stewart</t>
+          <t>Bhuvan Teja Mantrala</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Zane Sanchez</t>
+          <t>Vaddula, Sai</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Zane Clark</t>
+          <t>Manit Singh</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Hailey Martinez</t>
+          <t>Samantha Gamino</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Yara Scott</t>
+          <t>Sona Rao</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>George Wright</t>
+          <t>Aasrita Pichikala</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Wendy Hill</t>
+          <t>Isabelle Ngo</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Mia Johnson</t>
+          <t>Danielle Mecteaux</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Laura Collins</t>
+          <t>Sofia Francis</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Isaac Evans</t>
+          <t>Ankita Menon</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Faith Nguyen</t>
+          <t>Ridhima Reddy</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Xander King</t>
+          <t>Nakshatra Naidu</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Ethan Martinez</t>
+          <t>Robert Mosley</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Tina Scott</t>
+          <t>Anisha Saravanan</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Laura Patel</t>
+          <t>Rilyn Royer</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Nina Wright</t>
+          <t>Bezan Viccaji</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Nina Walker</t>
+          <t>Isabella Moreno Martinez</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1868,18 +1868,18 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Kevin Clark</t>
+          <t>Neeki Samadi</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1888,138 +1888,138 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Nina Sanchez</t>
+          <t>Juhi Uperam</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Xander Mitchell</t>
+          <t>Rishi Sanchaniya</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Fiona Lopez</t>
+          <t>Akshainie Kamma</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Yara Lewis</t>
+          <t>Aanya Sahir</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Gavin Johnson</t>
+          <t>Ananya Chakka</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Bella Roberts</t>
+          <t>Seejal Atukula</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Isaac Young</t>
+          <t>Keall French</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2028,18 +2028,18 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Julia Baker</t>
+          <t>Sathvik Chintha</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2048,98 +2048,98 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Michael Hall</t>
+          <t>Bella Zhang</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Victor Sanchez</t>
+          <t>Bhuvan Teja Mantrala</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Noah Nguyen</t>
+          <t>Archana Kaimal</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Oscar Patel</t>
+          <t>Rayna Badarpura</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Tina Campbell</t>
+          <t>Shreya Rajavel</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2148,18 +2148,18 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Quinn Rodriguez</t>
+          <t>Brati Dhakal</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2168,18 +2168,18 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Paula Garcia</t>
+          <t>Anushka Ganessan</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2188,18 +2188,18 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Sam Lee</t>
+          <t>Varun Bhadurgatte Nagaraj</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2208,98 +2208,98 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Gavin Young</t>
+          <t>Hasit Baaru</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Victor Martinez</t>
+          <t>Nina Konkle</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Eli Rodriguez</t>
+          <t>Rajath Shivakumar</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Caleb Turner</t>
+          <t>Daksha swaminathan Ashwath Athrey</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Hailey Scott</t>
+          <t>Mariyam Khazi</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-14</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2308,18 +2308,18 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>George Parker</t>
+          <t>Amber Lin</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-14</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2328,18 +2328,18 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Julia Roberts</t>
+          <t>Maitri Sharma</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-14</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2348,18 +2348,18 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Yara Allen</t>
+          <t>Rilyn Royer</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-14</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2368,58 +2368,58 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Ian Robinson</t>
+          <t>Anisha Saravanan</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025-09-13</t>
+          <t>2025-09-14</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Nina Perez</t>
+          <t>Anishka Vasanthu</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025-09-13</t>
+          <t>2025-09-14</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Ian Collins</t>
+          <t>Abhi Mora</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025-09-13</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2428,18 +2428,18 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Hannah Nelson</t>
+          <t>Lutfiyya Rida Bint Masud</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025-09-13</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2448,18 +2448,18 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Michael Walker</t>
+          <t>Suhani Gagrani</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025-09-13</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2468,18 +2468,18 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Chris Lee</t>
+          <t>Ashwini Yeluru</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025-09-13</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2488,18 +2488,18 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Gavin Hernandez</t>
+          <t>Mack Moore</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025-09-13</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2508,18 +2508,18 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Rachel Evans</t>
+          <t>Karthik Jai</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025-09-13</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2528,58 +2528,58 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Jasmine Campbell</t>
+          <t>Varun Murugan</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025-09-14</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Isaac Martinez</t>
+          <t>Srinidhi Inam</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025-09-14</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Michael Clark</t>
+          <t>Raza Inam</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025-09-14</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2588,18 +2588,18 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Eli King</t>
+          <t>Anirudh Puvvada</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025-09-14</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2608,18 +2608,18 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Kyle Mitchell</t>
+          <t>Aryan Rapolu</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025-09-14</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2628,18 +2628,18 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Chris Sanchez</t>
+          <t>Bhuvan Teja Mantrala</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025-09-14</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2648,18 +2648,18 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Faith Turner</t>
+          <t>Archana Kaimal</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025-09-14</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2672,14 +2672,14 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Caleb Lopez</t>
+          <t>Sonia Joseph</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025-09-14</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2692,14 +2692,14 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Diana Garcia</t>
+          <t>Keall French</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2712,14 +2712,14 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Zane Wright</t>
+          <t>Nadine Khatum</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2732,14 +2732,14 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Eli Robinson</t>
+          <t>Arjun Lakkireddy</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2752,14 +2752,14 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Kevin Scott</t>
+          <t>Isabelle Ngo</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2772,14 +2772,14 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Wendy Collins</t>
+          <t>Aasrita Pichikala</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2792,14 +2792,14 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Ethan Garcia</t>
+          <t>Sofia Francis</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2812,14 +2812,14 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Zane Parker</t>
+          <t>Danielle Mecteaux</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2832,14 +2832,14 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Victor Hall</t>
+          <t>Samantha Zhang</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2852,14 +2852,14 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Noah Brown</t>
+          <t>Hasini Murali</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2872,14 +2872,14 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Tina Rodriguez</t>
+          <t>Pranav Malaraju</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2892,14 +2892,14 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Victor Phillips</t>
+          <t>Robert Mosley</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -2912,14 +2912,14 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Bella Hernandez</t>
+          <t>Rilyn Royer</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -2932,14 +2932,14 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Yara Stewart</t>
+          <t>Anisha Saravanan</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -2948,18 +2948,18 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Julia Carter</t>
+          <t>Akshaya Daamudi</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2968,58 +2968,58 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Zane Sanchez</t>
+          <t>Vaddula, Sai</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Yara Baker</t>
+          <t>Sona Rao</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Laura Hernandez</t>
+          <t>Samantha Gamino</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3028,18 +3028,18 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Zane Clark</t>
+          <t>Rishi Sanchaniya</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3048,18 +3048,18 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Laura Collins</t>
+          <t>Manit Singh</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3068,18 +3068,18 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Laura Hall</t>
+          <t>Aanya Sahir</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3088,18 +3088,18 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Isaac Evans</t>
+          <t>Ananya Chakka</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3108,18 +3108,18 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Wendy Phillips</t>
+          <t>Bezan Viccaji</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3128,58 +3128,58 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Xander Phillips</t>
+          <t>Rayna Badarpura</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-20</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Wendy Roberts</t>
+          <t>Nakshatra Naidu</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-20</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Mia Johnson</t>
+          <t>Akshainie Kamma</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-20</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3188,18 +3188,18 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Fiona Scott</t>
+          <t>Archana Kaimal</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-20</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3208,18 +3208,18 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>George Wright</t>
+          <t>Bhuvan Teja Mantrala</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-20</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3228,18 +3228,18 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Faith Nguyen</t>
+          <t>Ridhima Reddy</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-20</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -3248,98 +3248,98 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>George Robinson</t>
+          <t>Isabella Moreno Martinez</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-21</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Jasmine Carter</t>
+          <t>Juhi Uperam</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-21</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Yara Scott</t>
+          <t>Neeki Samadi</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-21</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Hailey Martinez</t>
+          <t>Shreya Rajavel</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-21</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Xander King</t>
+          <t>Varun Bhadurgatte Nagaraj</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-21</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3348,18 +3348,18 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Tina Scott</t>
+          <t>Nina Konkle</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-21</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3368,18 +3368,18 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Fiona Lopez</t>
+          <t>Rajath Shivakumar</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-21</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3388,18 +3388,18 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Wendy Hill</t>
+          <t>Anishka Vasanthu</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-21</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3408,98 +3408,98 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Kevin Clark</t>
+          <t>Ankita Menon</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Laura Patel</t>
+          <t>Sathvik Chintha</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Yara Lewis</t>
+          <t>Bella Zhang</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Victor Sanchez</t>
+          <t>Rilyn Royer</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Nina Wright</t>
+          <t>Anisha Saravanan</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025-09-20</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3508,18 +3508,18 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Nina Sanchez</t>
+          <t>Seejal Atukula</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025-09-20</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3528,138 +3528,138 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Nina Walker</t>
+          <t>Mariyam Khazi</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025-09-20</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Ethan Martinez</t>
+          <t>Anushka Ganessan</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025-09-20</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Bella Roberts</t>
+          <t>Brati Dhakal</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2025-09-20</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Julia Baker</t>
+          <t>Hasit Baaru</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2025-09-20</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Xander Mitchell</t>
+          <t>Ashwini Yeluru</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2025-09-20</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Gavin Johnson</t>
+          <t>Varun Murugan</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2025-09-20</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Isaac Young</t>
+          <t>Karthik Jai</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2025-09-21</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -3668,18 +3668,18 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Quinn Rodriguez</t>
+          <t>Daksha swaminathan Ashwath Athrey</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2025-09-21</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -3688,418 +3688,418 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Chris Lee</t>
+          <t>Suhani Gagrani</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2025-09-21</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Gavin Young</t>
+          <t>Amber Lin</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2025-09-21</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>George Parker</t>
+          <t>Maitri Sharma</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2025-09-21</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Oscar Patel</t>
+          <t>Archana Kaimal</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2025-09-21</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Yara Allen</t>
+          <t>Bhuvan Teja Mantrala</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2025-09-21</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Gavin Hernandez</t>
+          <t>Abhi Mora</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2025-09-21</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Paula Garcia</t>
+          <t>Keall French</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Noah Nguyen</t>
+          <t>Lutfiyya Rida Bint Masud</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Ian Robinson</t>
+          <t>Raza Inam</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Michael Hall</t>
+          <t>Mack Moore</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Tina Campbell</t>
+          <t>Isabelle Ngo</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Caleb Turner</t>
+          <t>Sofia Francis</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Hailey Scott</t>
+          <t>Danielle Mecteaux</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Julia Roberts</t>
+          <t>Srinidhi Inam</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Rachel Evans</t>
+          <t>Hasini Murali</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Faith Turner</t>
+          <t>Aryan Rapolu</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Diana Garcia</t>
+          <t>Anirudh Puvvada</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Caleb Lopez</t>
+          <t>Rilyn Royer</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Chris Sanchez</t>
+          <t>Anisha Saravanan</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Ian Collins</t>
+          <t>Sonia Joseph</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Nina Perez</t>
+          <t>Manit Singh</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4108,18 +4108,18 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Bella Hernandez</t>
+          <t>Arjun Lakkireddy</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -4128,138 +4128,138 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Yara Stewart</t>
+          <t>Nadine Khatum</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Zane Wright</t>
+          <t>Aasrita Pichikala</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Zane Sanchez</t>
+          <t>Rishi Sanchaniya</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Sam Lee</t>
+          <t>Ananya Chakka</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Michael Clark</t>
+          <t>Aanya Sahir</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Eli Rodriguez</t>
+          <t>Samantha Zhang</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Michael Walker</t>
+          <t>Akshaya Daamudi</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -4268,18 +4268,18 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Jasmine Campbell</t>
+          <t>Robert Mosley</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -4288,98 +4288,98 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Hannah Nelson</t>
+          <t>Pranav Malaraju</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Kyle Mitchell</t>
+          <t>Archana Kaimal</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Wendy Collins</t>
+          <t>Bhuvan Teja Mantrala</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Victor Martinez</t>
+          <t>Rayna Badarpura</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Ethan Garcia</t>
+          <t>Bezan Viccaji</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -4388,18 +4388,18 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Laura Collins</t>
+          <t>Vaddula, Sai</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -4408,18 +4408,18 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Kevin Scott</t>
+          <t>Sona Rao</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -4428,18 +4428,18 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Eli King</t>
+          <t>Ridhima Reddy</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -4448,98 +4448,98 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Laura Hall</t>
+          <t>Akshainie Kamma</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Eli Robinson</t>
+          <t>Nina Konkle</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Zane Parker</t>
+          <t>Rajath Shivakumar</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Victor Hall</t>
+          <t>Shreya Rajavel</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Noah Brown</t>
+          <t>Isabella Moreno Martinez</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -4548,18 +4548,18 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Tina Rodriguez</t>
+          <t>Nakshatra Naidu</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -4568,18 +4568,18 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Isaac Martinez</t>
+          <t>Sathvik Chintha</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -4588,18 +4588,18 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Victor Phillips</t>
+          <t>Rilyn Royer</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -4608,58 +4608,58 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Yara Scott</t>
+          <t>Anisha Saravanan</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Wendy Phillips</t>
+          <t>Anishka Vasanthu</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Isaac Evans</t>
+          <t>Seejal Atukula</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -4668,18 +4668,18 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Julia Carter</t>
+          <t>Samantha Gamino</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -4688,18 +4688,18 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Laura Hernandez</t>
+          <t>Juhi Uperam</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -4708,18 +4708,18 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>George Wright</t>
+          <t>Varun Bhadurgatte Nagaraj</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -4728,18 +4728,18 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Jasmine Carter</t>
+          <t>Hasit Baaru</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -4748,18 +4748,18 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Yara Baker</t>
+          <t>Karthik Jai</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -4768,651 +4768,51 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Fiona Scott</t>
+          <t>Varun Murugan</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Zane Clark</t>
+          <t>Mariyam Khazi</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Wendy Roberts</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>2025-09-28</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C220" t="n">
-        <v>6</v>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>Fiona Lopez</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>2025-09-28</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C221" t="n">
-        <v>6</v>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>Xander Phillips</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>2025-09-28</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C222" t="n">
-        <v>7</v>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>Faith Nguyen</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>2025-09-28</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C223" t="n">
-        <v>7</v>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>Hailey Martinez</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>2025-09-28</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C224" t="n">
-        <v>8</v>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>Yara Lewis</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>2025-09-28</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C225" t="n">
-        <v>8</v>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>Tina Scott</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C226" t="n">
-        <v>1</v>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>George Robinson</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C227" t="n">
-        <v>1</v>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>Laura Patel</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C228" t="n">
-        <v>2</v>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>Mia Johnson</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C229" t="n">
-        <v>2</v>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>Xander King</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C230" t="n">
-        <v>3</v>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>Kevin Clark</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C231" t="n">
-        <v>3</v>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>Victor Sanchez</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C232" t="n">
-        <v>4</v>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>Wendy Hill</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C233" t="n">
-        <v>4</v>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>Isaac Young</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>2025-09-30</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C234" t="n">
-        <v>5</v>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>Nina Wright</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>2025-09-30</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C235" t="n">
-        <v>5</v>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>Ethan Martinez</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>2025-09-30</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C236" t="n">
-        <v>6</v>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>Nina Walker</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>2025-09-30</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C237" t="n">
-        <v>6</v>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>Bella Roberts</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>2025-09-30</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C238" t="n">
-        <v>7</v>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>Nina Sanchez</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>2025-09-30</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C239" t="n">
-        <v>7</v>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>Xander Mitchell</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>2025-09-30</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C240" t="n">
-        <v>8</v>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>Gavin Johnson</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>2025-09-30</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C241" t="n">
-        <v>8</v>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>Julia Baker</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C242" t="n">
-        <v>1</v>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>Ian Robinson</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C243" t="n">
-        <v>1</v>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>Caleb Turner</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C244" t="n">
-        <v>2</v>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>Paula Garcia</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C245" t="n">
-        <v>2</v>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>Julia Roberts</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C246" t="n">
-        <v>3</v>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>Gavin Young</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C247" t="n">
-        <v>3</v>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>Diana Garcia</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C248" t="n">
-        <v>4</v>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>Quinn Rodriguez</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C249" t="n">
-        <v>4</v>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>George Parker</t>
+          <t>Raza Inam</t>
         </is>
       </c>
     </row>
@@ -5427,7 +4827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5465,19 +4865,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Julia Roberts</t>
+          <t>Anisha Saravanan</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{8: 1, 2: 1, 3: 1, 7: 1}</t>
+          <t>{6: 8}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -5488,19 +4888,19 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Paula Garcia</t>
+          <t>Rilyn Royer</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{2: 1, 3: 1, 4: 1, 6: 1}</t>
+          <t>{6: 8}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -5511,19 +4911,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ian Robinson</t>
+          <t>Bhuvan Teja Mantrala</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{8: 1, 1: 1, 3: 1, 5: 1}</t>
+          <t>{6: 7}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -5534,19 +4934,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Caleb Turner</t>
+          <t>Archana Kaimal</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{1: 1, 2: 1, 6: 1, 7: 1}</t>
+          <t>{6: 7}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -5557,7 +4957,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>George Parker</t>
+          <t>Aanya Sahir</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -5565,11 +4965,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{2: 1, 4: 1, 5: 1, 7: 1}</t>
+          <t>{3: 4}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -5580,7 +4980,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Diana Garcia</t>
+          <t>Raza Inam</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -5588,11 +4988,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{8: 1, 1: 1, 3: 1, 7: 1}</t>
+          <t>{1: 2, 4: 2}</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -5603,7 +5003,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Gavin Young</t>
+          <t>Karthik Jai</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -5611,11 +5011,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{2: 1, 3: 1, 4: 1, 6: 1}</t>
+          <t>{3: 4}</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -5626,7 +5026,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Quinn Rodriguez</t>
+          <t>Keall French</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -5634,11 +5034,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>{1: 1, 3: 1, 4: 1, 5: 1}</t>
+          <t>{8: 2, 2: 1, 4: 1}</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -5649,15 +5049,15 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tina Rodriguez</t>
+          <t>Manit Singh</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>{5: 1, 6: 1, 7: 1}</t>
+          <t>{8: 2, 2: 1, 4: 1}</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -5672,19 +5072,19 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Tina Campbell</t>
+          <t>Mariyam Khazi</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{1: 1, 2: 1, 6: 1}</t>
+          <t>{8: 2, 4: 2}</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -5695,19 +5095,19 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sam Lee</t>
+          <t>Nina Konkle</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>{2: 1, 4: 1, 6: 1}</t>
+          <t>{3: 4}</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -5718,19 +5118,19 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Rachel Evans</t>
+          <t>Rajath Shivakumar</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>{8: 1, 1: 1, 4: 1}</t>
+          <t>{3: 4}</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -5741,15 +5141,15 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bella Hernandez</t>
+          <t>Rayna Badarpura</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>{2: 1, 4: 1, 6: 1}</t>
+          <t>{8: 2, 1: 1, 4: 1}</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -5764,15 +5164,15 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Oscar Patel</t>
+          <t>Ridhima Reddy</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>{1: 1, 2: 1, 3: 1}</t>
+          <t>{8: 2, 2: 1, 4: 1}</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -5787,19 +5187,19 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Victor Hall</t>
+          <t>Hasit Baaru</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>{3: 1, 4: 1, 6: 1}</t>
+          <t>{2: 4}</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -5810,19 +5210,19 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Noah Nguyen</t>
+          <t>Sathvik Chintha</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>{1: 1, 4: 1, 5: 1}</t>
+          <t>{5: 4}</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -5833,19 +5233,19 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Noah Brown</t>
+          <t>Seejal Atukula</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>{3: 1, 4: 1, 6: 1}</t>
+          <t>{8: 3, 4: 1}</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -5856,15 +5256,15 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Nina Wright</t>
+          <t>Shreya Rajavel</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>{3: 1, 4: 1, 5: 1}</t>
+          <t>{8: 2, 2: 1, 4: 1}</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -5879,19 +5279,19 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Nina Walker</t>
+          <t>Sofia Francis</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>{3: 1, 5: 1, 6: 1}</t>
+          <t>{3: 4}</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -5902,15 +5302,15 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Nina Sanchez</t>
+          <t>Sonia Joseph</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>{4: 1, 5: 1, 7: 1}</t>
+          <t>{8: 2, 2: 1, 4: 1}</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -5925,15 +5325,15 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Nina Perez</t>
+          <t>Vaddula, Sai</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>{1: 1, 2: 1, 3: 1}</t>
+          <t>{8: 2, 1: 1, 4: 1}</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -5948,19 +5348,19 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Michael Walker</t>
+          <t>Varun Bhadurgatte Nagaraj</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>{8: 1, 2: 1, 7: 1}</t>
+          <t>{2: 4}</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -5971,19 +5371,19 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Tina Scott</t>
+          <t>Isabella Moreno Martinez</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>{8: 1, 1: 1, 2: 1}</t>
+          <t>{8: 2, 4: 2}</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -5994,19 +5394,19 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Victor Sanchez</t>
+          <t>Varun Murugan</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>{1: 1, 3: 1, 4: 1}</t>
+          <t>{3: 4}</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6017,15 +5417,15 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Victor Martinez</t>
+          <t>Bezan Viccaji</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>{2: 1, 5: 1, 6: 1}</t>
+          <t>{8: 2, 2: 1, 4: 1}</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -6040,19 +5440,19 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Yara Allen</t>
+          <t>Ananya Chakka</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>{8: 1, 2: 1, 3: 1}</t>
+          <t>{3: 4}</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6063,15 +5463,15 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Zane Sanchez</t>
+          <t>Abhi Mora</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>{4: 1, 5: 1, 7: 1}</t>
+          <t>{8: 2, 2: 1, 4: 1}</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -6086,19 +5486,19 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Zane Parker</t>
+          <t>Danielle Mecteaux</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>{2: 1, 3: 1, 5: 1}</t>
+          <t>{3: 4}</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6109,19 +5509,19 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Zane Clark</t>
+          <t>Akshainie Kamma</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>{1: 1, 4: 1, 5: 1}</t>
+          <t>{2: 2, 5: 2}</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6132,15 +5532,15 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Yara Stewart</t>
+          <t>Akshaya Daamudi</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>{3: 1, 4: 1, 6: 1}</t>
+          <t>{8: 2, 1: 1, 4: 1}</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -6155,19 +5555,19 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Yara Scott</t>
+          <t>Anishka Vasanthu</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>{8: 1, 5: 1, 7: 1}</t>
+          <t>{8: 3, 4: 1}</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6178,7 +5578,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Yara Lewis</t>
+          <t>Robert Mosley</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -6186,11 +5586,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>{8: 1, 3: 1, 6: 1}</t>
+          <t>{5: 3}</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6201,7 +5601,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Yara Baker</t>
+          <t>Samantha Gamino</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -6209,11 +5609,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>{8: 1, 4: 1, 5: 1}</t>
+          <t>{1: 3}</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -6224,7 +5624,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Xander Phillips</t>
+          <t>Samantha Zhang</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -6232,11 +5632,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>{3: 1, 6: 1, 7: 1}</t>
+          <t>{1: 1, 4: 2}</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6247,7 +5647,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Victor Phillips</t>
+          <t>Anirudh Puvvada</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -6255,11 +5655,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>{8: 1, 4: 1, 5: 1}</t>
+          <t>{5: 3}</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -6270,7 +5670,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Xander Mitchell</t>
+          <t>Hasini Murali</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -6278,7 +5678,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>{5: 1, 7: 2}</t>
+          <t>{1: 1, 4: 2}</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -6293,7 +5693,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Xander King</t>
+          <t>Amber Lin</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -6301,11 +5701,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>{8: 1, 1: 1, 2: 1}</t>
+          <t>{5: 3}</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -6316,7 +5716,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Wendy Roberts</t>
+          <t>Ankita Menon</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -6324,11 +5724,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>{1: 1, 4: 1, 5: 1}</t>
+          <t>{1: 1, 4: 2}</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -6339,7 +5739,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Wendy Phillips</t>
+          <t>Sona Rao</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -6347,11 +5747,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>{1: 1, 3: 1, 6: 1}</t>
+          <t>{1: 3}</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -6362,7 +5762,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Wendy Hill</t>
+          <t>Srinidhi Inam</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -6370,11 +5770,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>{2: 1, 4: 1, 6: 1}</t>
+          <t>{1: 1, 4: 2}</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -6385,7 +5785,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Wendy Collins</t>
+          <t>Suhani Gagrani</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -6393,11 +5793,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>{8: 1, 1: 1, 2: 1}</t>
+          <t>{1: 1, 4: 2}</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -6408,7 +5808,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Michael Clark</t>
+          <t>Rishi Sanchaniya</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -6416,11 +5816,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>{5: 1, 6: 1, 7: 1}</t>
+          <t>{2: 3}</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -6431,7 +5831,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Michael Hall</t>
+          <t>Arjun Lakkireddy</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -6439,11 +5839,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>{8: 1, 3: 1, 6: 1}</t>
+          <t>{1: 2, 4: 1}</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -6454,7 +5854,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Laura Hernandez</t>
+          <t>Isabelle Ngo</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -6462,11 +5862,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>{8: 1, 1: 1, 2: 1}</t>
+          <t>{2: 3}</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -6477,7 +5877,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Mia Johnson</t>
+          <t>Aryan Rapolu</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -6485,11 +5885,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>{2: 1, 4: 1, 7: 1}</t>
+          <t>{5: 3}</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -6500,7 +5900,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Laura Patel</t>
+          <t>Ashwini Yeluru</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -6508,11 +5908,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>{1: 1, 2: 1, 3: 1}</t>
+          <t>{2: 3}</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -6523,7 +5923,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>George Robinson</t>
+          <t>Pranav Malaraju</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -6531,11 +5931,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>{1: 1, 5: 1, 6: 1}</t>
+          <t>{5: 3}</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -6546,7 +5946,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Gavin Johnson</t>
+          <t>Bella Zhang</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -6554,11 +5954,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>{8: 2, 6: 1}</t>
+          <t>{5: 3}</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -6569,7 +5969,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Gavin Hernandez</t>
+          <t>Nakshatra Naidu</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -6577,11 +5977,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>{3: 1, 4: 1, 7: 1}</t>
+          <t>{5: 3}</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -6592,7 +5992,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Fiona Scott</t>
+          <t>Nadine Khatum</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -6600,11 +6000,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>{1: 1, 4: 1, 5: 1}</t>
+          <t>{1: 2, 4: 1}</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -6615,7 +6015,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Fiona Lopez</t>
+          <t>Maitri Sharma</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -6623,11 +6023,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>{1: 1, 5: 1, 6: 1}</t>
+          <t>{5: 3}</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -6638,7 +6038,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Faith Turner</t>
+          <t>Mack Moore</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -6646,11 +6046,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>{1: 1, 5: 1, 7: 1}</t>
+          <t>{2: 3}</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -6661,7 +6061,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Faith Nguyen</t>
+          <t>Aasrita Pichikala</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -6669,11 +6069,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>{8: 1, 6: 1, 7: 1}</t>
+          <t>{2: 3}</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -6684,7 +6084,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Ethan Martinez</t>
+          <t>Daksha swaminathan Ashwath Athrey</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -6692,11 +6092,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>{1: 1, 5: 1, 6: 1}</t>
+          <t>{1: 1, 4: 2}</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -6707,7 +6107,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Ethan Garcia</t>
+          <t>Juhi Uperam</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -6715,11 +6115,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>{8: 1, 2: 1, 3: 1}</t>
+          <t>{1: 3}</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -6730,19 +6130,19 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Eli Rodriguez</t>
+          <t>Anushka Ganessan</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>{4: 1, 5: 1, 7: 1}</t>
+          <t>{1: 2}</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -6753,19 +6153,19 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Eli Robinson</t>
+          <t>Neeki Samadi</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>{8: 1, 1: 1, 5: 1}</t>
+          <t>{1: 2}</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -6776,19 +6176,19 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Eli King</t>
+          <t>Brati Dhakal</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>{8: 1, 4: 1, 6: 1}</t>
+          <t>{1: 2}</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -6799,504 +6199,21 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Chris Sanchez</t>
+          <t>Lutfiyya Rida Bint Masud</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>{2: 1, 5: 1, 7: 1}</t>
+          <t>{1: 2}</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E60" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Chris Lee</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>3</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>{1: 1, 2: 1, 3: 1}</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>3</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Caleb Lopez</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>3</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>{8: 1, 2: 1, 3: 1}</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>3</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>George Wright</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>3</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>{3: 1, 5: 1, 6: 1}</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>3</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Hailey Martinez</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>3</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>{8: 1, 5: 1, 7: 1}</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>3</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Hailey Scott</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>3</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>{4: 1, 6: 1, 7: 1}</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>3</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Julia Carter</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>3</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>{2: 1, 4: 1, 7: 1}</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>3</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Bella Roberts</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>3</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>{6: 2, 7: 1}</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>2</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Laura Hall</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>3</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>{2: 1, 3: 1, 4: 1}</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>3</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Laura Collins</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>3</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>{1: 1, 3: 1, 7: 1}</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>3</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Kyle Mitchell</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>3</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>{1: 1, 6: 1, 7: 1}</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>3</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Kevin Scott</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>3</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>{1: 1, 2: 1, 3: 1}</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>3</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Kevin Clark</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>3</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>{2: 1, 3: 1, 4: 1}</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>3</v>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Julia Baker</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>3</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>{8: 2, 7: 1}</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>2</v>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Hannah Nelson</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>3</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>{8: 1, 2: 1, 7: 1}</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
-        <v>3</v>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Jasmine Carter</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>3</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>{2: 1, 3: 1, 7: 1}</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>3</v>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Jasmine Campbell</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>3</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>{8: 1, 1: 1, 4: 1}</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>3</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Isaac Young</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>3</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>{8: 1, 4: 1, 7: 1}</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>3</v>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Isaac Martinez</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>3</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>{4: 1, 5: 1, 7: 1}</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>3</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Isaac Evans</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>3</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>{8: 1, 1: 1, 2: 1}</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>3</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Ian Collins</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>3</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>{8: 1, 1: 1, 3: 1}</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>3</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Zane Wright</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>3</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>{1: 1, 5: 1, 6: 1}</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>3</v>
-      </c>
-      <c r="E81" t="inlineStr">
         <is>
           <t>Regular</t>
         </is>
